--- a/legislator/property/output/tmpb9711_林郁方_2011-11-22_財產申報表.xlsx
+++ b/legislator/property/output/tmpb9711_林郁方_2011-11-22_財產申報表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="152">
   <si>
     <t>土地坐落</t>
   </si>
@@ -78,12 +78,6 @@
     <t>高雄市杉林區上平段0526-0000 地號</t>
   </si>
   <si>
-    <t>土 地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方 公尺）</t>
-  </si>
-  <si>
     <t>20000分之 155</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>110分之1</t>
   </si>
   <si>
-    <t>權利範ffl (持分）</t>
-  </si>
-  <si>
     <t>林郁方</t>
   </si>
   <si>
@@ -126,9 +117,6 @@
     <t>9b年06月 21曰</t>
   </si>
   <si>
-    <t>變動時間</t>
-  </si>
-  <si>
     <t>買賣</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
     <t>繼承</t>
   </si>
   <si>
-    <t>變動原因</t>
-  </si>
-  <si>
     <t>14,345,000(與 下列七筆為同 一交易）</t>
   </si>
   <si>
@@ -168,9 +153,6 @@
     <t>(超過五牵）</t>
   </si>
   <si>
-    <t>變動時之價額</t>
-  </si>
-  <si>
     <t>建物標示</t>
   </si>
   <si>
@@ -195,9 +177,6 @@
     <t>高雄市杉林區上平段00000-000 建號</t>
   </si>
   <si>
-    <t>建 物標示</t>
-  </si>
-  <si>
     <t>2分之1</t>
   </si>
   <si>
@@ -207,9 +186,6 @@
     <t>全部</t>
   </si>
   <si>
-    <t>權利範圍 (持分）</t>
-  </si>
-  <si>
     <t>97年03月 06日</t>
   </si>
   <si>
@@ -229,9 +205,6 @@
   </si>
   <si>
     <t>•貝賈</t>
-  </si>
-  <si>
-    <t>凌動原 '因</t>
   </si>
   <si>
     <t>14,345,000(1^ 下列三筆為同 一交易(含陽台 13.23，雨遮 6.98))</t>
@@ -869,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -909,19 +882,19 @@
         <v>1785</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -935,19 +908,19 @@
         <v>1785</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -961,19 +934,19 @@
         <v>807.12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -987,19 +960,19 @@
         <v>807.12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1013,19 +986,19 @@
         <v>1785</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1039,19 +1012,19 @@
         <v>1785</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1065,19 +1038,19 @@
         <v>807.12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1091,19 +1064,19 @@
         <v>807.12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1117,19 +1090,19 @@
         <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1143,19 +1116,19 @@
         <v>1635</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1169,19 +1142,19 @@
         <v>328</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1195,19 +1168,19 @@
         <v>685.59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1221,19 +1194,19 @@
         <v>942.75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1247,19 +1220,19 @@
         <v>813.08</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1273,45 +1246,19 @@
         <v>773.31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1329,34 +1276,34 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1374,16 +1321,16 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1401,16 +1348,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1418,16 +1365,16 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1435,16 +1382,16 @@
         <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1452,16 +1399,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1469,16 +1416,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1496,34 +1443,34 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1541,22 +1488,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1564,22 +1511,22 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2">
         <v>10366731</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1587,22 +1534,22 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E3" s="2">
         <v>1800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1610,22 +1557,22 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1643,22 +1590,22 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1615,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1676,7 +1623,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1694,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1702,25 +1649,25 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>152.52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1728,25 +1675,25 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>4.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1754,25 +1701,25 @@
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
         <v>152.52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1780,25 +1727,25 @@
         <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>4.5</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1806,25 +1753,25 @@
         <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2">
         <v>116.91</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1832,51 +1779,25 @@
         <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>138</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>45</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1894,19 +1815,19 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1933,25 +1854,25 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -1960,7 +1881,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1978,16 +1899,16 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -2014,16 +1935,16 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2041,22 +1962,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2064,16 +1985,16 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -2085,16 +2006,16 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -2106,16 +2027,16 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -2127,16 +2048,16 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -2148,16 +2069,16 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -2169,16 +2090,16 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -2190,22 +2111,22 @@
         <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2223,28 +2144,28 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2262,25 +2183,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
